--- a/Civilworks cost/RADP Preparations/Total Project/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Total Project/Projecttion_output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\RADP Preparations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Total Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -1957,9 +1957,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2289,13 +2289,13 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>476</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65" s="5">
         <f>SUM(C2:C64)</f>
         <v>32.85</v>
@@ -5755,19 +5755,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N306"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection sqref="A1:N306"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="I242" sqref="I242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="42.77734375" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>47</v>
@@ -5809,7 +5809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>104</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15269,7 +15269,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -18745,7 +18745,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -18921,7 +18921,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -19097,7 +19097,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -19240,9 +19240,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>475</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -19309,7 +19309,7 @@
         <v>714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>938.57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>1079.52</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>655.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>1094.31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>667.67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>817.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>475.85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>712.73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>635.34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>375.82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>567.71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>134.16</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>913.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>926.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>511.73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>1521.41</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>1061.82</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>1268.067</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20144,17 +20144,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="C256" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -20274,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -21873,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -21914,7 +21914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -21996,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -22201,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -22447,7 +22447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -24005,7 +24005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -24907,7 +24907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -24948,7 +24948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -24989,7 +24989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -25194,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -25358,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -25891,7 +25891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -25973,7 +25973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -26547,7 +26547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -26588,7 +26588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26711,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26752,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26834,7 +26834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26957,7 +26957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -27285,7 +27285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -28433,7 +28433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -28802,7 +28802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -29212,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -29294,7 +29294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -29458,7 +29458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -29540,7 +29540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -29581,7 +29581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -29622,7 +29622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -29786,7 +29786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -29868,7 +29868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -29950,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -30114,7 +30114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -30196,7 +30196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -30360,7 +30360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -30401,7 +30401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -30442,7 +30442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -30483,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -30606,7 +30606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -30729,7 +30729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -30770,7 +30770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -31016,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -31139,7 +31139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -31180,7 +31180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -31221,7 +31221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -31385,7 +31385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -31426,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -31631,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -31754,7 +31754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -31877,7 +31877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -31918,7 +31918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -31959,7 +31959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -32000,7 +32000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -32082,7 +32082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -32123,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -32164,7 +32164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -32205,7 +32205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -32328,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -32451,7 +32451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -32492,7 +32492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -32574,7 +32574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -32615,7 +32615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -32710,16 +32710,16 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>476</v>
       </c>
@@ -32739,7 +32739,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -32762,7 +32762,7 @@
         <v>498.36969789999978</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>51</v>
       </c>
@@ -32785,7 +32785,7 @@
         <v>495.70558825400002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>48</v>
       </c>
@@ -32808,7 +32808,7 @@
         <v>426.72750000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>54</v>
       </c>
@@ -32831,7 +32831,7 @@
         <v>415.92999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>282.98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46</v>
       </c>
@@ -32877,7 +32877,7 @@
         <v>272.04831898664469</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>23</v>
       </c>
@@ -32900,7 +32900,7 @@
         <v>258.7762001492996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45</v>
       </c>
@@ -32923,7 +32923,7 @@
         <v>230.27722589000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -32946,7 +32946,7 @@
         <v>225.73746921</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>53</v>
       </c>
@@ -32969,7 +32969,7 @@
         <v>210.5431546099999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -32992,7 +32992,7 @@
         <v>207.67344664161999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>195.9485</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>183.658006288</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>49</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>177.652576952479</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -33084,7 +33084,7 @@
         <v>167.4999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -33107,7 +33107,7 @@
         <v>161.19800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41</v>
       </c>
@@ -33130,7 +33130,7 @@
         <v>133.91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>61</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>132.06961569573559</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -33176,7 +33176,7 @@
         <v>116.19570868000029</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>58</v>
       </c>
@@ -33199,7 +33199,7 @@
         <v>104.5895443000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>55</v>
       </c>
@@ -33222,7 +33222,7 @@
         <v>99.653999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>68.040000000000077</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>59.685999999999922</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>53.536786430000063</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -33314,7 +33314,7 @@
         <v>40.867071403852151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6</v>
       </c>
@@ -33337,7 +33337,7 @@
         <v>38.891870896199983</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>57</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>28.700000000000049</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -33383,7 +33383,7 @@
         <v>25.72999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15</v>
       </c>
@@ -33406,7 +33406,7 @@
         <v>17.368000000000048</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>16.720500000000019</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -33452,7 +33452,7 @@
         <v>12.291877389369921</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>59</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>5370.6001596772012</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>7</v>
       </c>
@@ -33502,7 +33502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>26</v>
       </c>
@@ -33525,7 +33525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28</v>
       </c>
@@ -33548,7 +33548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>29</v>
       </c>
@@ -33571,7 +33571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>32</v>
       </c>
@@ -33617,7 +33617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>34</v>
       </c>
@@ -33663,7 +33663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -33686,7 +33686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -33709,7 +33709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37</v>
       </c>
@@ -33732,7 +33732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40</v>
       </c>
@@ -33801,7 +33801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -33824,7 +33824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>62</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -33870,7 +33870,7 @@
         <v>-0.70000000000004547</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>27</v>
       </c>
@@ -33893,7 +33893,7 @@
         <v>-2.5011999999999972</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>-6.7176274944894772</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>25</v>
       </c>
@@ -33939,7 +33939,7 @@
         <v>-10.449001946799971</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -33962,7 +33962,7 @@
         <v>-14.618369659999759</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>30</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>-15.311199999999991</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -34008,7 +34008,7 @@
         <v>-16.96000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>12</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>-23.567604208520041</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>20</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>-43.461516954999979</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>22</v>
       </c>
@@ -34077,7 +34077,7 @@
         <v>-61.837027910563052</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>18</v>
       </c>
@@ -34100,7 +34100,7 @@
         <v>-63.123940684268973</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>17</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>-70.27178641799992</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>47</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>-80.113996366999913</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>13</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>-138.43219999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -34196,7 +34196,7 @@
         <v>-869.71623532335173</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>496</v>
       </c>
@@ -34237,15 +34237,15 @@
       <selection activeCell="E2" sqref="E2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="39.44140625" customWidth="1"/>
-    <col min="5" max="8" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -34268,7 +34268,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -34294,7 +34294,7 @@
         <v>683.96133576707985</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -34320,7 +34320,7 @@
         <v>419.22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -34346,7 +34346,7 @@
         <v>2996.624608930661</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -34372,7 +34372,7 @@
         <v>1502.7381705380601</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>6491.5000795759179</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -34450,7 +34450,7 @@
         <v>6882.4528213905614</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -34476,7 +34476,7 @@
         <v>3316.3883155864778</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -34502,7 +34502,7 @@
         <v>1987.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -34528,7 +34528,7 @@
         <v>1838.59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -34554,7 +34554,7 @@
         <v>5546.5646794171453</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -34580,7 +34580,7 @@
         <v>139.98636427649021</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -34606,7 +34606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -34632,7 +34632,7 @@
         <v>528.42759999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -34665,15 +34665,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -34690,244 +34697,250 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>712.75075425581815</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>975.77133576707979</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>291.81</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>683.96133576707985</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>355.70850000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>419.22</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>419.22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>11471.572879250551</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>17494.83285904464</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>6503.97</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>10990.862859044641</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>7711.7878064617844</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>9428.9928213905605</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>2546.54</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>6882.4528213905614</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>2514.792234416479</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3367.4783155864779</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>51.09</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>3316.3883155864778</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1767.5975000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1987.25</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1987.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1710.1284000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>1838.59</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>1838.59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>8681.0778508679323</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>11379.604679417151</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>5833.04</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>5546.5646794171453</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>19.43</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>139.98636427649021</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <v>139.98636427649021</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>118.19759999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>528.42759999999998</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>528.42759999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <f>SUM(E2:E13)</f>
+        <v>15226.45</v>
       </c>
     </row>
   </sheetData>
@@ -34943,12 +34956,12 @@
       <selection activeCell="D65" sqref="D65:H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>476</v>
       </c>
@@ -34998,7 +35011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -35051,7 +35064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -35104,7 +35117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -35157,7 +35170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -35210,7 +35223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -35263,7 +35276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -35316,7 +35329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -35369,7 +35382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -35422,7 +35435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -35475,7 +35488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -35528,7 +35541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -35581,7 +35594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -35634,7 +35647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -35687,7 +35700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -35740,7 +35753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -35793,7 +35806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -35846,7 +35859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -35899,7 +35912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -35952,7 +35965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -36005,7 +36018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -36058,7 +36071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -36111,7 +36124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -36164,7 +36177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -36217,7 +36230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -36270,7 +36283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -36323,7 +36336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -36376,7 +36389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -36429,7 +36442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -36482,7 +36495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -36535,7 +36548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -36588,7 +36601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -36641,7 +36654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -36694,7 +36707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -36747,7 +36760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -36800,7 +36813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -36853,7 +36866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -36906,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -36959,7 +36972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -37012,7 +37025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -37065,7 +37078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -37118,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -37171,7 +37184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -37224,7 +37237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -37277,7 +37290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -37330,7 +37343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -37383,7 +37396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -37436,7 +37449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -37489,7 +37502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -37542,7 +37555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -37595,7 +37608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -37648,7 +37661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -37701,7 +37714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -37754,7 +37767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -37807,7 +37820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -37860,7 +37873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -37913,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -37966,7 +37979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -38019,7 +38032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -38072,7 +38085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -38125,7 +38138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -38178,7 +38191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -38231,7 +38244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -38284,7 +38297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -38337,7 +38350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65" s="5">
         <f>SUM(C2:C64)</f>
         <v>70.669999999999987</v>
@@ -38413,12 +38426,12 @@
       <selection activeCell="C2" sqref="C2:Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>476</v>
       </c>
@@ -38468,7 +38481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -38521,7 +38534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -38574,7 +38587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -38627,7 +38640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -38680,7 +38693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -38733,7 +38746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -38786,7 +38799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -38839,7 +38852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -38892,7 +38905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -38945,7 +38958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -38998,7 +39011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -39051,7 +39064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -39104,7 +39117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -39157,7 +39170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -39210,7 +39223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -39263,7 +39276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -39316,7 +39329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -39369,7 +39382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -39422,7 +39435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -39475,7 +39488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -39528,7 +39541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -39581,7 +39594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -39634,7 +39647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -39687,7 +39700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -39740,7 +39753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -39793,7 +39806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -39846,7 +39859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -39899,7 +39912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -39952,7 +39965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -40005,7 +40018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -40058,7 +40071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -40111,7 +40124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -40164,7 +40177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -40217,7 +40230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -40270,7 +40283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -40323,7 +40336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -40376,7 +40389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -40429,7 +40442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -40482,7 +40495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -40535,7 +40548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -40588,7 +40601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -40641,7 +40654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -40694,7 +40707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -40747,7 +40760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -40800,7 +40813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -40853,7 +40866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -40906,7 +40919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -40959,7 +40972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -41012,7 +41025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -41065,7 +41078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -41118,7 +41131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -41171,7 +41184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -41224,7 +41237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -41277,7 +41290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -41330,7 +41343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -41383,7 +41396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -41436,7 +41449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -41489,7 +41502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -41542,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -41595,7 +41608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -41648,7 +41661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -41701,7 +41714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -41754,7 +41767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -41807,7 +41820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65" s="5">
         <f>SUM(C2:C64)</f>
         <v>103.52</v>
